--- a/doc/Requirements.xlsx
+++ b/doc/Requirements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="174">
   <si>
     <t xml:space="preserve">Identifier</t>
   </si>
@@ -81,16 +81,28 @@
     <t xml:space="preserve">User frontend</t>
   </si>
   <si>
+    <t xml:space="preserve">vuejs</t>
+  </si>
+  <si>
     <t xml:space="preserve">backend master , message backend</t>
   </si>
   <si>
+    <t xml:space="preserve">Stefan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Agent frontend</t>
   </si>
   <si>
+    <t xml:space="preserve">Uros</t>
+  </si>
+  <si>
     <t xml:space="preserve">Admin frontend</t>
   </si>
   <si>
     <t xml:space="preserve">backend master </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borislav</t>
   </si>
   <si>
     <t xml:space="preserve">Vehicle system</t>
@@ -730,8 +742,8 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -739,6 +751,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,107 +772,149 @@
       <c r="A2" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
+      <c r="D3" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="47.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +935,7 @@
   </sheetPr>
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -900,18 +955,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -919,13 +974,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -933,13 +988,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -947,13 +1002,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
@@ -961,13 +1016,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -975,13 +1030,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -989,32 +1044,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -1022,13 +1077,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
@@ -1036,13 +1091,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
@@ -1050,21 +1105,21 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>5</v>
@@ -1072,13 +1127,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>5</v>
@@ -1086,13 +1141,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
@@ -1100,13 +1155,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
@@ -1114,13 +1169,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>3</v>
@@ -1128,13 +1183,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>3</v>
@@ -1142,13 +1197,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>3</v>
@@ -1156,13 +1211,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>3</v>
@@ -1170,13 +1225,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>3</v>
@@ -1184,13 +1239,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -1198,13 +1253,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2</v>
@@ -1212,13 +1267,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>3</v>
@@ -1226,13 +1281,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>3</v>
@@ -1240,13 +1295,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>4</v>
@@ -1254,13 +1309,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>5</v>
@@ -1268,13 +1323,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>2</v>
@@ -1282,13 +1337,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>5</v>
@@ -1296,13 +1351,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>2</v>
@@ -1310,187 +1365,187 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
